--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -5,26 +5,46 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolemorris/simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolemorris/morrinic/cs6015/simulator/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D76AD02-4AA2-DD48-BAEB-5CD575052BE6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B463649-BF20-D144-8546-C2E2CC1D670C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="460" windowWidth="28040" windowHeight="16100" xr2:uid="{B620DE3C-F690-9F47-BE0A-5EB6E02670E7}"/>
+    <workbookView xWindow="4500" yWindow="460" windowWidth="23600" windowHeight="15860" xr2:uid="{B620DE3C-F690-9F47-BE0A-5EB6E02670E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bank" sheetId="6" r:id="rId1"/>
-    <sheet name="Store" sheetId="7" r:id="rId2"/>
+    <sheet name="Bank " sheetId="8" r:id="rId1"/>
+    <sheet name="Store" sheetId="10" r:id="rId2"/>
     <sheet name="Sorting page" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="bank_results" localSheetId="0">Bank!$B$1:$C$110</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Bank '!$F$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Bank '!$F$11</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Bank '!$G$10:$P$10</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Bank '!$G$11:$P$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Bank '!$G$12:$P$12</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Bank '!$G$13:$P$13</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Bank '!$G$3:$P$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Bank '!$G$4:$P$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Bank '!$G$5:$P$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Bank '!$G$6:$P$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Bank '!$G$7:$P$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Bank '!$G$8:$P$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Bank '!$F$12</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Bank '!$G$9:$P$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Bank '!$F$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Bank '!$F$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Bank '!$F$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Bank '!$F$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Bank '!$F$7</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Bank '!$F$8</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Bank '!$F$9</definedName>
+    <definedName name="bank_results" localSheetId="0">'Bank '!$B$1:$C$110</definedName>
     <definedName name="bank_results" localSheetId="2">'Sorting page'!#REF!</definedName>
+    <definedName name="bank_results" localSheetId="1">Store!$B$1:$C$110</definedName>
     <definedName name="bank_results_1" localSheetId="2">'Sorting page'!#REF!</definedName>
-    <definedName name="bank_results_2" localSheetId="2">'Sorting page'!#REF!</definedName>
-    <definedName name="bank_results_3" localSheetId="2">'Sorting page'!#REF!</definedName>
+    <definedName name="bank_results_2" localSheetId="2">'Sorting page'!$A$1:$C$114</definedName>
     <definedName name="store_results" localSheetId="2">'Sorting page'!#REF!</definedName>
-    <definedName name="store_results" localSheetId="1">Store!$B$1:$C$110</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +63,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{C8902DA8-C0AA-BE44-87D1-2F7D9D90C194}" name="bank_results" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" xr16:uid="{B93B3490-178A-0047-976D-86FF62B0C76A}" name="bank_results1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/nicolemorris/morrinic/cs6015/simulator/simulator/bank_results.txt">
       <textFields count="3">
         <textField/>
@@ -52,8 +72,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{19DB9CBA-17F1-C54A-935A-D554B5ABD1B2}" name="store_results" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/nicolemorris/morrinic/cs6015/simulator/simulator/store_results.txt">
+  <connection id="2" xr16:uid="{47E2003A-F441-964A-9A87-301BA75194BD}" name="bank_results12" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/nicolemorris/morrinic/cs6015/simulator/simulator/bank_results.txt">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{3AB0DE77-4313-9D4B-8482-1A7CDD5C03C1}" name="bank_results2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/nicolemorris/morrinic/cs6015/simulator/simulator/bank_results.txt">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -162,6 +191,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Bank Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -177,10 +232,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -237,6 +289,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -245,57 +308,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$3:$P$3</c:f>
+              <c:f>'Bank '!$G$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000000-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -304,14 +414,53 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$4:$P$4</c:f>
+              <c:f>'Bank '!$G$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -335,26 +484,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000001-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -363,57 +520,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$5:$P$5</c:f>
+              <c:f>'Bank '!$G$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000002-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -422,14 +626,53 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$6:$P$6</c:f>
+              <c:f>'Bank '!$G$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -441,38 +684,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000003-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -481,57 +732,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$7:$P$7</c:f>
+              <c:f>'Bank '!$G$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>173</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>268</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000004-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -540,57 +838,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$8:$P$8</c:f>
+              <c:f>'Bank '!$G$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>216</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>341</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000005-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -601,57 +946,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$9:$P$9</c:f>
+              <c:f>'Bank '!$G$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>243</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>290</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>393</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000006-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -662,57 +1054,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$10:$P$10</c:f>
+              <c:f>'Bank '!$G$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>291</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>333</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>366</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>424</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000007-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
@@ -723,57 +1162,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$11:$P$11</c:f>
+              <c:f>'Bank '!$G$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>330</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>372</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>402</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>455</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000008-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bank '!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
@@ -784,112 +1270,87 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Bank '!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bank!$F$12:$P$12</c:f>
+              <c:f>'Bank '!$G$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>375</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>407</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>433</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>479</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-3F8B-E140-AE8D-4376A63D7C6D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Bank!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-3F8B-E140-AE8D-4376A63D7C6D}"/>
+              <c16:uniqueId val="{00000009-0CBB-B441-9F0E-8EDBFA5CAE27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1081,17 +1542,73 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1679420768"/>
-        <c:axId val="1679422448"/>
-        <c:axId val="1679371552"/>
+        <c:axId val="1685601856"/>
+        <c:axId val="1685602240"/>
+        <c:axId val="1683754864"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1679420768"/>
+        <c:axId val="1685601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Average Customers per Minute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1128,7 +1645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679422448"/>
+        <c:crossAx val="1685602240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1679422448"/>
+        <c:axId val="1685602240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,6 +1673,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> Service Time (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1187,17 +1764,77 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679420768"/>
+        <c:crossAx val="1685601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1679371552"/>
+        <c:axId val="1683754864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> Service Time (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1234,7 +1871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1679422448"/>
+        <c:crossAx val="1685602240"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -1335,6 +1972,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Store Results</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1343,26 +2006,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:view3D>
@@ -1410,6 +2053,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1418,57 +2072,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$3:$P$3</c:f>
+              <c:f>Store!$G$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000000-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -1477,14 +2178,53 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$4:$P$4</c:f>
+              <c:f>Store!$G$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1508,26 +2248,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000001-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -1536,57 +2284,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$5:$P$5</c:f>
+              <c:f>Store!$G$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000002-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -1595,14 +2390,53 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$6:$P$6</c:f>
+              <c:f>Store!$G$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -1614,38 +2448,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>146</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000003-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5"/>
@@ -1654,57 +2496,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$7:$P$7</c:f>
+              <c:f>Store!$G$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>115</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>173</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>268</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000004-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent6"/>
@@ -1713,57 +2602,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$8:$P$8</c:f>
+              <c:f>Store!$G$9:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>148</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>216</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>341</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000005-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
@@ -1774,57 +2710,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$9:$P$9</c:f>
+              <c:f>Store!$G$10:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>243</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>290</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>328</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>393</c:v>
+                  <c:v>424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000006-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2">
@@ -1835,57 +2818,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$10:$P$10</c:f>
+              <c:f>Store!$G$11:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>213</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>291</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>333</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>366</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>424</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000007-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
@@ -1896,57 +2926,104 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$11:$P$11</c:f>
+              <c:f>Store!$G$12:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>267</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>330</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>372</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>402</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>455</c:v>
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000008-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Store!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
@@ -1957,112 +3034,87 @@
             <a:effectLst/>
             <a:sp3d/>
           </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>Store!$G$3:$P$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Store!$F$12:$P$12</c:f>
+              <c:f>Store!$G$13:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>235</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>375</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>407</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>433</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>479</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-6D53-E44B-A0EA-50C6BDCBC02D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln/>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:val>
-            <c:numRef>
-              <c:f>Store!$F$13:$P$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>476</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>494</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-6D53-E44B-A0EA-50C6BDCBC02D}"/>
+              <c16:uniqueId val="{00000009-8F09-4341-8ADE-FC99DEEDC09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2254,17 +3306,53 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="1681194064"/>
-        <c:axId val="1683801776"/>
-        <c:axId val="1706397040"/>
+        <c:axId val="1685601856"/>
+        <c:axId val="1685602240"/>
+        <c:axId val="1683754864"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="1681194064"/>
+        <c:axId val="1685601856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Average Customers per Minute</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2301,7 +3389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683801776"/>
+        <c:crossAx val="1685602240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2309,7 +3397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1683801776"/>
+        <c:axId val="1685602240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,6 +3417,46 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+                  <a:t> Service Time (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2360,17 +3488,57 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1681194064"/>
+        <c:crossAx val="1685601856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="1706397040"/>
+        <c:axId val="1683754864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+                  <a:t> Service Time (Minutes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2407,16 +3575,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683801776"/>
+        <c:crossAx val="1685602240"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
@@ -2460,21 +3621,6 @@
     </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -2497,23 +3643,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9B3DF7-E8BA-7F4A-BB62-C4875866D704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAC9E9C-2C08-4D4C-9F4B-2807DC9533D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,27 +3684,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B78817A-0851-CB49-8D19-0414FF0D3CD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA45C8E-781D-B64A-8B46-1AC632E19FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2576,11 +3724,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bank_results" connectionId="1" xr16:uid="{F04F79AF-0756-B847-91C1-A5D76305B26C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bank_results" connectionId="1" xr16:uid="{ED9B82EF-DEED-EB44-8778-B3F2D2AF4133}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="store_results" connectionId="2" xr16:uid="{4B125E90-3A46-9B43-9F9E-59E4EAE313E2}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bank_results" connectionId="2" xr16:uid="{66B52A79-9F53-774C-97DE-7A5ABF9F4F33}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="bank_results_2" connectionId="3" xr16:uid="{FFD16716-F913-D54C-B0F5-27501ED925B5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2879,11 +4031,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C064CA2F-10D2-3D45-AFF8-626DCE030387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA10ADC-CC1F-4742-BCCC-24B792B975C2}">
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F3" sqref="F3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2924,9 +4076,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -3290,7 +4440,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
         <v>3.5</v>
@@ -4566,20 +5716,17 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C110">
-    <sortCondition ref="B1:B110"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB32EB6-5D32-9C41-865F-E01E876C9619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CF81DA-FA26-8143-8CA7-81029B3C9E6A}">
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4620,9 +5767,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
@@ -4986,7 +6131,7 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
         <v>3.5</v>
@@ -6262,9 +7407,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:C110">
-    <sortCondition ref="B1:B110"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6275,7 +7417,7 @@
   <dimension ref="E1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
